--- a/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
+++ b/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -594,6 +594,78 @@
   </si>
   <si>
     <t>About_TProc_8</t>
+  </si>
+  <si>
+    <t>About_TConn_1</t>
+  </si>
+  <si>
+    <t>About_TConn_2</t>
+  </si>
+  <si>
+    <t>About_TConn_3</t>
+  </si>
+  <si>
+    <t>About_TConn_4</t>
+  </si>
+  <si>
+    <t>About_TConn_5</t>
+  </si>
+  <si>
+    <t>About_TConn_6</t>
+  </si>
+  <si>
+    <t>About_TConn_7</t>
+  </si>
+  <si>
+    <t>About_TConn_8</t>
+  </si>
+  <si>
+    <t>About_TConn_9</t>
+  </si>
+  <si>
+    <t>About_TConn_10</t>
+  </si>
+  <si>
+    <t>About_TConn_11</t>
+  </si>
+  <si>
+    <t>About_TConn_12</t>
+  </si>
+  <si>
+    <t>About_TConn_13</t>
+  </si>
+  <si>
+    <t>To show that the company logo displays on the header of the About page</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>To show that the copyright and correct version information displays at the footer of the About page.</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>To show that the correct page title displays on the About page</t>
+  </si>
+  <si>
+    <t>To check there is a common navigational area on the About page</t>
+  </si>
+  <si>
+    <t>4.1.7</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>To check the About page contains textual information about the company</t>
+  </si>
+  <si>
+    <t>4.1.19</t>
   </si>
 </sst>
 </file>
@@ -922,7 +994,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -932,7 +1003,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -942,7 +1012,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1007,7 +1076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1104,11 +1172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95120384"/>
-        <c:axId val="95138560"/>
+        <c:axId val="57205888"/>
+        <c:axId val="57207424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95120384"/>
+        <c:axId val="57205888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95138560"/>
+        <c:crossAx val="57207424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95138560"/>
+        <c:axId val="57207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95120384"/>
+        <c:crossAx val="57205888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1544,8 +1612,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1639,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -1588,7 +1656,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -1603,7 +1671,7 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>71</v>
@@ -1618,9 +1686,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>91</v>
@@ -1637,7 +1705,7 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>92</v>
@@ -1654,7 +1722,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
@@ -1671,7 +1739,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>68</v>
@@ -1688,7 +1756,7 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>70</v>
@@ -1700,29 +1768,75 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1749,8 +1863,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
@@ -2139,7 +2253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="10"/>
@@ -2153,7 +2267,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="10"/>
@@ -2167,7 +2281,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="10"/>
@@ -2181,7 +2295,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="10"/>
@@ -2195,7 +2309,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
@@ -2209,7 +2323,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
@@ -2223,7 +2337,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
@@ -2237,7 +2351,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
@@ -2251,7 +2365,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
@@ -2265,7 +2379,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10"/>
@@ -2279,7 +2393,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
@@ -2293,7 +2407,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
@@ -4641,7 +4755,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4656,7 +4770,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4671,7 +4785,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4686,7 +4800,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4701,7 +4815,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4808,6 +4922,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -4921,32 +5050,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -4961,9 +5068,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
+++ b/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="186">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -416,9 +416,6 @@
     <t>To show that when Order is selected as a logged in user on the About page, the user is directed to the Order page.</t>
   </si>
   <si>
-    <t>Exp_TCon_1</t>
-  </si>
-  <si>
     <t>Nav_TCon_1</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
     <t>To show that the correct page title displays on the About page</t>
   </si>
   <si>
-    <t>To check there is a common navigational area on the About page</t>
-  </si>
-  <si>
     <t>4.1.7</t>
   </si>
   <si>
@@ -662,17 +656,146 @@
     <t>low</t>
   </si>
   <si>
-    <t>To check the About page contains textual information about the company</t>
-  </si>
-  <si>
     <t>4.1.19</t>
+  </si>
+  <si>
+    <t>TCase_9</t>
+  </si>
+  <si>
+    <t>TCase_10</t>
+  </si>
+  <si>
+    <t>TCase_11</t>
+  </si>
+  <si>
+    <t>TCase_12</t>
+  </si>
+  <si>
+    <t>TCase_13</t>
+  </si>
+  <si>
+    <t>Check if the logo displays upon the About page's header</t>
+  </si>
+  <si>
+    <t>Check if the correct version information and copyright displays upon the About page's footer</t>
+  </si>
+  <si>
+    <t>Check if the About page has an About title</t>
+  </si>
+  <si>
+    <t>To show there is a common navigational area on the About page</t>
+  </si>
+  <si>
+    <t>To show the About page contains textual information about the company</t>
+  </si>
+  <si>
+    <t>Check if the About page has a common navigational area</t>
+  </si>
+  <si>
+    <t>Check if the About page contains textual information</t>
+  </si>
+  <si>
+    <t>Nav_TCon_8</t>
+  </si>
+  <si>
+    <t>Nav_TCon_9</t>
+  </si>
+  <si>
+    <t>Nav_TCon_10</t>
+  </si>
+  <si>
+    <t>Nav_TCon_11</t>
+  </si>
+  <si>
+    <t>Nav_TCon_12</t>
+  </si>
+  <si>
+    <t>Nav_TCon_13</t>
+  </si>
+  <si>
+    <t>About_TProc_9</t>
+  </si>
+  <si>
+    <t>About_TProc_10</t>
+  </si>
+  <si>
+    <t>About_TProc_11</t>
+  </si>
+  <si>
+    <t>About_TProc_12</t>
+  </si>
+  <si>
+    <t>About_TProc_13</t>
+  </si>
+  <si>
+    <t>While on the About page check if the company logo displays properly within the header</t>
+  </si>
+  <si>
+    <t>While on the About page check if the correct version infromation and copyright displays properly within the footer</t>
+  </si>
+  <si>
+    <t>Logo will be displayed correctly within the header</t>
+  </si>
+  <si>
+    <t>Version information and copyright will be displayed correctly within the footer</t>
+  </si>
+  <si>
+    <t>While on the About page check if the title is 'About'</t>
+  </si>
+  <si>
+    <t>Page title will be 'About'</t>
+  </si>
+  <si>
+    <t>While on the About page check if the page has a common navigational area</t>
+  </si>
+  <si>
+    <t>While on the About page check if the page contains textual information</t>
+  </si>
+  <si>
+    <t>About page will have a common navigational area</t>
+  </si>
+  <si>
+    <t>About page will contain textual information</t>
+  </si>
+  <si>
+    <t>Title missing</t>
+  </si>
+  <si>
+    <t>Numerous spelling/grammar errors</t>
+  </si>
+  <si>
+    <t>Home, Order, About and Contact all available like the other pages</t>
+  </si>
+  <si>
+    <t>© 2015 - QUB CSC3056 CSC7056 Testing Site V1.0</t>
+  </si>
+  <si>
+    <t>Opens in a new tab</t>
+  </si>
+  <si>
+    <t>Opens in the same tab</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>About_1</t>
+  </si>
+  <si>
+    <t>About_2</t>
+  </si>
+  <si>
+    <t>Opens in the same tab therefore leaving the Pizza website</t>
+  </si>
+  <si>
+    <t>Missing a page title in the same format as Home, Order and Contacts titles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +887,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -852,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -884,9 +1014,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +1062,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,6 +1125,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1003,6 +1135,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1012,6 +1145,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1050,13 +1184,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,6 +1210,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1172,11 +1307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57205888"/>
-        <c:axId val="57207424"/>
+        <c:axId val="92851584"/>
+        <c:axId val="93082752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57205888"/>
+        <c:axId val="92851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57207424"/>
+        <c:crossAx val="93082752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1193,7 +1328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57207424"/>
+        <c:axId val="93082752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57205888"/>
+        <c:crossAx val="92851584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,7 +1748,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,22 +1759,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -1656,7 +1791,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -1671,10 +1806,10 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>58</v>
@@ -1688,10 +1823,10 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -1705,13 +1840,13 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -1722,13 +1857,13 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1739,13 +1874,13 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -1756,13 +1891,13 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1770,13 +1905,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1784,13 +1919,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1798,27 +1933,27 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1826,13 +1961,13 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1863,102 +1998,105 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="F7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="41.85546875" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.95" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="26" t="s">
-        <v>23</v>
+      <c r="G2" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -1973,29 +2111,31 @@
     </row>
     <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="26" t="s">
-        <v>23</v>
+      <c r="G3" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -2004,35 +2144,37 @@
       <c r="N3" s="3"/>
       <c r="O3" s="9"/>
       <c r="P3" s="10"/>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="26" t="s">
-        <v>23</v>
+      <c r="G4" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="4"/>
@@ -2047,29 +2189,31 @@
     </row>
     <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="26" t="s">
-        <v>23</v>
+      <c r="G5" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="4"/>
@@ -2081,29 +2225,31 @@
     </row>
     <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="26" t="s">
-        <v>23</v>
+      <c r="G6" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4"/>
@@ -2115,16 +2261,16 @@
     </row>
     <row r="7" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2132,12 +2278,14 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="26" t="s">
-        <v>23</v>
+      <c r="G7" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
@@ -2152,16 +2300,16 @@
     </row>
     <row r="8" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2169,16 +2317,18 @@
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="26" t="s">
-        <v>23</v>
+      <c r="G8" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -2186,61 +2336,95 @@
       <c r="T8" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="30">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="26" t="s">
-        <v>23</v>
+      <c r="G9" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="31">
+        <v>42080</v>
+      </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="P9" s="10"/>
       <c r="T9" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="30">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -2248,62 +2432,160 @@
       <c r="T10" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="30">
         <f>COUNTIF(H4:H90,"*Not*")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+    <row r="12" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="31">
+        <v>42080</v>
+      </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="10"/>
+    <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="10"/>
+    <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="31">
+        <v>42080</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -2313,7 +2595,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="26"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2327,7 +2609,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="26"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2341,7 +2623,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2355,7 +2637,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2369,7 +2651,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="26"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2383,7 +2665,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="26"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2397,7 +2679,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="26"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -2411,7 +2693,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="26"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2425,7 +2707,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="26"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2439,7 +2721,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="26"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2453,7 +2735,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="26"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -2470,7 +2752,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="26"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2482,7 +2764,7 @@
       <c r="T26" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="31">
+      <c r="U26" s="30">
         <f>COUNTIF(L2:L50,"*Minor*")</f>
         <v>0</v>
       </c>
@@ -2491,7 +2773,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="26"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -2503,7 +2785,7 @@
       <c r="T27" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="31">
+      <c r="U27" s="30">
         <f>COUNTIF(L2:L7,"*Moderate*")</f>
         <v>0</v>
       </c>
@@ -2512,7 +2794,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="26"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2524,7 +2806,7 @@
       <c r="T28" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="30">
         <f>COUNTIF(L2:L7,"*Major*")</f>
         <v>0</v>
       </c>
@@ -2533,7 +2815,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="26"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2545,7 +2827,7 @@
       <c r="T29" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="31">
+      <c r="U29" s="30">
         <f>COUNTIF(L2:L7,"*Critical*")</f>
         <v>0</v>
       </c>
@@ -2554,7 +2836,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="26"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -2566,7 +2848,7 @@
       <c r="T30" t="s">
         <v>38</v>
       </c>
-      <c r="U30" s="31">
+      <c r="U30" s="30">
         <f>COUNTIF(L2:L7,"*Cometic*")</f>
         <v>0</v>
       </c>
@@ -2575,7 +2857,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2589,7 +2871,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2603,7 +2885,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2617,7 +2899,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -2631,7 +2913,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2645,7 +2927,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -2659,7 +2941,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -2673,7 +2955,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2687,7 +2969,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="26"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -2701,7 +2983,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -2715,7 +2997,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="26"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -2729,7 +3011,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="26"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -2743,7 +3025,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="26"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -2757,7 +3039,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -2771,7 +3053,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -2785,7 +3067,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="26"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -2799,7 +3081,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -2813,7 +3095,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="26"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -2827,7 +3109,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="26"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -2841,7 +3123,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="26"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -2855,7 +3137,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="26"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -2869,7 +3151,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="26"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -2883,7 +3165,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="26"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -2897,7 +3179,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="26"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -2911,7 +3193,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="26"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -2925,7 +3207,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="26"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -2939,7 +3221,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="26"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -2953,7 +3235,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="26"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -2967,7 +3249,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="26"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -2981,7 +3263,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="26"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -2995,7 +3277,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="26"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -3009,7 +3291,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="26"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -3023,7 +3305,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="26"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -3037,7 +3319,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="26"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -3051,7 +3333,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="26"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -3065,7 +3347,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="26"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -3079,7 +3361,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="26"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -3093,7 +3375,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="26"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -3107,7 +3389,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="26"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
@@ -3121,7 +3403,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="26"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -3135,7 +3417,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="26"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -3149,7 +3431,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="26"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -3163,7 +3445,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
-      <c r="H73" s="26"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -3177,7 +3459,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="26"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -3191,7 +3473,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
-      <c r="H75" s="26"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
@@ -3205,7 +3487,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="26"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
@@ -3219,7 +3501,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
-      <c r="H77" s="26"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -3233,7 +3515,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="26"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -3247,7 +3529,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="26"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -3261,7 +3543,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
-      <c r="H80" s="26"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -3275,7 +3557,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="26"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -3289,7 +3571,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="26"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -3303,7 +3585,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="26"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -3317,7 +3599,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="26"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -3331,7 +3613,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -3345,7 +3627,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="26"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -3359,7 +3641,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="26"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -3373,7 +3655,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="26"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -3387,7 +3669,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="26"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
@@ -3401,7 +3683,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="26"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -3415,7 +3697,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="26"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -3429,7 +3711,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="26"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -3443,7 +3725,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="26"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -3457,7 +3739,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="26"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -3471,7 +3753,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="26"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -3485,7 +3767,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="26"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -3499,7 +3781,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="26"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -3513,7 +3795,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="26"/>
+      <c r="H98" s="25"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -3527,7 +3809,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="26"/>
+      <c r="H99" s="25"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -3541,7 +3823,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="26"/>
+      <c r="H100" s="25"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -3555,7 +3837,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="26"/>
+      <c r="H101" s="25"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
@@ -3569,7 +3851,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="26"/>
+      <c r="H102" s="25"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -3583,7 +3865,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="26"/>
+      <c r="H103" s="25"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -3597,7 +3879,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="26"/>
+      <c r="H104" s="25"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
@@ -3611,7 +3893,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="26"/>
+      <c r="H105" s="25"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -3625,7 +3907,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="26"/>
+      <c r="H106" s="25"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -3639,7 +3921,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="26"/>
+      <c r="H107" s="25"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -3653,7 +3935,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="26"/>
+      <c r="H108" s="25"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -3667,7 +3949,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="26"/>
+      <c r="H109" s="25"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -3681,7 +3963,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="26"/>
+      <c r="H110" s="25"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -3695,7 +3977,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="26"/>
+      <c r="H111" s="25"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -3709,7 +3991,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="26"/>
+      <c r="H112" s="25"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -3723,7 +4005,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="26"/>
+      <c r="H113" s="25"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
@@ -3737,7 +4019,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="26"/>
+      <c r="H114" s="25"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -3751,7 +4033,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
-      <c r="H115" s="26"/>
+      <c r="H115" s="25"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -3765,7 +4047,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="26"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -3779,7 +4061,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="26"/>
+      <c r="H117" s="25"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -3793,7 +4075,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="26"/>
+      <c r="H118" s="25"/>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -3807,7 +4089,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
-      <c r="H119" s="26"/>
+      <c r="H119" s="25"/>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -3821,7 +4103,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="26"/>
+      <c r="H120" s="25"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
@@ -3835,7 +4117,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="26"/>
+      <c r="H121" s="25"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -3849,7 +4131,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
-      <c r="H122" s="26"/>
+      <c r="H122" s="25"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -3863,7 +4145,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
-      <c r="H123" s="26"/>
+      <c r="H123" s="25"/>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -3877,7 +4159,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="26"/>
+      <c r="H124" s="25"/>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -3891,7 +4173,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="26"/>
+      <c r="H125" s="25"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
@@ -3905,7 +4187,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
-      <c r="H126" s="26"/>
+      <c r="H126" s="25"/>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
@@ -3919,7 +4201,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
-      <c r="H127" s="26"/>
+      <c r="H127" s="25"/>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -3933,7 +4215,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="26"/>
+      <c r="H128" s="25"/>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -3947,7 +4229,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
-      <c r="H129" s="26"/>
+      <c r="H129" s="25"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
@@ -3961,7 +4243,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="26"/>
+      <c r="H130" s="25"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -3975,7 +4257,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
-      <c r="H131" s="26"/>
+      <c r="H131" s="25"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -3989,7 +4271,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
-      <c r="H132" s="26"/>
+      <c r="H132" s="25"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -4003,7 +4285,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="26"/>
+      <c r="H133" s="25"/>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -4017,7 +4299,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
-      <c r="H134" s="26"/>
+      <c r="H134" s="25"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
@@ -4031,7 +4313,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
-      <c r="H135" s="26"/>
+      <c r="H135" s="25"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -4045,7 +4327,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
-      <c r="H136" s="26"/>
+      <c r="H136" s="25"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -4059,7 +4341,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="26"/>
+      <c r="H137" s="25"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
@@ -4073,7 +4355,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="26"/>
+      <c r="H138" s="25"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
@@ -4087,7 +4369,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="26"/>
+      <c r="H139" s="25"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -4101,7 +4383,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="26"/>
+      <c r="H140" s="25"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
@@ -4115,7 +4397,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="26"/>
+      <c r="H141" s="25"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
@@ -4129,7 +4411,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
-      <c r="H142" s="26"/>
+      <c r="H142" s="25"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -4143,7 +4425,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
-      <c r="H143" s="26"/>
+      <c r="H143" s="25"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
@@ -4157,7 +4439,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
-      <c r="H144" s="26"/>
+      <c r="H144" s="25"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
       <c r="K144" s="10"/>
@@ -4171,7 +4453,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
-      <c r="H145" s="26"/>
+      <c r="H145" s="25"/>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -4185,7 +4467,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="26"/>
+      <c r="H146" s="25"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -4199,7 +4481,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="26"/>
+      <c r="H147" s="25"/>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -4213,7 +4495,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
-      <c r="H148" s="26"/>
+      <c r="H148" s="25"/>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -4227,7 +4509,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="26"/>
+      <c r="H149" s="25"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -4241,7 +4523,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
-      <c r="H150" s="26"/>
+      <c r="H150" s="25"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
@@ -4255,7 +4537,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
-      <c r="H151" s="26"/>
+      <c r="H151" s="25"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -4269,7 +4551,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="26"/>
+      <c r="H152" s="25"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -4283,7 +4565,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
-      <c r="H153" s="26"/>
+      <c r="H153" s="25"/>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -4297,7 +4579,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
-      <c r="H154" s="26"/>
+      <c r="H154" s="25"/>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -4311,7 +4593,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
-      <c r="H155" s="26"/>
+      <c r="H155" s="25"/>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
@@ -4325,7 +4607,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
-      <c r="H156" s="26"/>
+      <c r="H156" s="25"/>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
@@ -4339,7 +4621,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
-      <c r="H157" s="26"/>
+      <c r="H157" s="25"/>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -4434,13 +4716,13 @@
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L7</xm:sqref>
+          <xm:sqref>L2:L14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K11</xm:sqref>
+          <xm:sqref>K2:K12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4455,34 +4737,35 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1"/>
@@ -4497,20 +4780,22 @@
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="1"/>
@@ -4521,18 +4806,20 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4544,18 +4831,20 @@
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4567,18 +4856,20 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4590,18 +4881,20 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4613,18 +4906,20 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4636,18 +4931,20 @@
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4659,18 +4956,20 @@
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4680,12 +4979,22 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4695,12 +5004,22 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>178</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4710,12 +5029,22 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4725,12 +5054,22 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4740,12 +5079,22 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4832,6 +5181,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4865,7 +5215,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -4879,7 +5229,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -4893,7 +5243,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -4922,21 +5272,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5050,10 +5385,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -5068,16 +5425,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
+++ b/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
@@ -533,9 +533,6 @@
     <t>User is allowed access to Order page</t>
   </si>
   <si>
-    <t>Log in using a valid username and passowrd, direct to the About page and then direct to the Order page.</t>
-  </si>
-  <si>
     <t>While on the About page as a non-logged in user select the Order link.</t>
   </si>
   <si>
@@ -789,6 +786,9 @@
   </si>
   <si>
     <t>Missing a page title in the same format as Home, Order and Contacts titles</t>
+  </si>
+  <si>
+    <t>Log in using a valid username and password, direct to the About page and then direct to the Order page.</t>
   </si>
 </sst>
 </file>
@@ -1307,11 +1307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92851584"/>
-        <c:axId val="93082752"/>
+        <c:axId val="108670336"/>
+        <c:axId val="108676224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92851584"/>
+        <c:axId val="108670336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93082752"/>
+        <c:crossAx val="108676224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93082752"/>
+        <c:axId val="108676224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92851584"/>
+        <c:crossAx val="108670336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>70</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>90</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>91</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>68</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>69</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1933,27 +1933,27 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1998,8 +1998,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2355,7 @@
         <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>33</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P9" s="10"/>
       <c r="T9" t="s">
@@ -2396,10 +2396,10 @@
     </row>
     <row r="10" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>82</v>
@@ -2408,7 +2408,7 @@
         <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="11" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>82</v>
@@ -2451,7 +2451,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="12" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>82</v>
@@ -2487,7 +2487,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -2502,7 +2502,7 @@
         <v>97</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>33</v>
@@ -2515,16 +2515,16 @@
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>82</v>
@@ -2533,7 +2533,7 @@
         <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>27</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>82</v>
@@ -2569,7 +2569,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -4738,7 +4738,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>74</v>
@@ -4789,10 +4789,10 @@
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="26" t="s">
@@ -4806,19 +4806,19 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -4831,19 +4831,19 @@
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4856,19 +4856,19 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4881,19 +4881,19 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4906,19 +4906,19 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4931,19 +4931,19 @@
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4956,19 +4956,19 @@
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4981,19 +4981,19 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5006,19 +5006,19 @@
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5031,19 +5031,19 @@
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5056,19 +5056,19 @@
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5081,19 +5081,19 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5272,6 +5272,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5385,32 +5400,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -5425,9 +5418,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
+++ b/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="236">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -434,15 +434,6 @@
     <t>4.1.21</t>
   </si>
   <si>
-    <t>To show that selecing the 2nd quick pizza link opens it in another tab/window</t>
-  </si>
-  <si>
-    <t>To show that selecing the 1st quick pizza link opens it in another tab/window</t>
-  </si>
-  <si>
-    <t>To show that selecing the 3rd quick pizza link opens it in another tab/window</t>
-  </si>
-  <si>
     <t>To show that when Order is selected as a non-logged in user on the About page, the user is prevented from accessing the Order page</t>
   </si>
   <si>
@@ -789,6 +780,165 @@
   </si>
   <si>
     <t>Log in using a valid username and password, direct to the About page and then direct to the Order page.</t>
+  </si>
+  <si>
+    <t>To show that selecting the 1st quick pizza link opens it in another tab/window</t>
+  </si>
+  <si>
+    <t>To show that selecting the 2nd quick pizza link opens it in another tab/window</t>
+  </si>
+  <si>
+    <t>To show that selecting the 3rd quick pizza link opens it in another tab/window</t>
+  </si>
+  <si>
+    <t>4.1.5</t>
+  </si>
+  <si>
+    <t>About_Tconn_14</t>
+  </si>
+  <si>
+    <t>To show that the About page exists as part of the website system</t>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t>About_Tconn_15</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>About_Tconn_16</t>
+  </si>
+  <si>
+    <t>About_Tconn_17</t>
+  </si>
+  <si>
+    <t>About_Tconn_18</t>
+  </si>
+  <si>
+    <t>To show that a non-logged in user can directly navigate to the "Register" and "Log in" pages from the "About" page</t>
+  </si>
+  <si>
+    <t>To show that a logged in user can directly navigate to the "My Account - reset password" page from the "About" page</t>
+  </si>
+  <si>
+    <t>To show that a logged in user can log off from the "About" page</t>
+  </si>
+  <si>
+    <t>To show that the "Forgot password" page is not directly accessible from the "About" page</t>
+  </si>
+  <si>
+    <t>Check if the About page exists as part of the website</t>
+  </si>
+  <si>
+    <t>Nav_TCon_14</t>
+  </si>
+  <si>
+    <t>TCase_14</t>
+  </si>
+  <si>
+    <t>About_TProc_14</t>
+  </si>
+  <si>
+    <t>While on the website system, check if the About page exists</t>
+  </si>
+  <si>
+    <t>About page is accessible and displays when selected</t>
+  </si>
+  <si>
+    <t>About_TProc_15</t>
+  </si>
+  <si>
+    <t>TCase_15</t>
+  </si>
+  <si>
+    <t>About_TProc_16</t>
+  </si>
+  <si>
+    <t>TCase_16</t>
+  </si>
+  <si>
+    <t>TCase_17</t>
+  </si>
+  <si>
+    <t>TCase_18</t>
+  </si>
+  <si>
+    <t>About_TProc_17</t>
+  </si>
+  <si>
+    <t>About_TProc_18</t>
+  </si>
+  <si>
+    <t>Check if the Register page can be directly navigated to from the About page as a non-logged in user</t>
+  </si>
+  <si>
+    <t>Check if the Log in page can be directly navigated to from the About page as a non-logged in user</t>
+  </si>
+  <si>
+    <t>Nav_TCon_15</t>
+  </si>
+  <si>
+    <t>Nav_TCon_16</t>
+  </si>
+  <si>
+    <t>Nav_TCon_17</t>
+  </si>
+  <si>
+    <t>Nav_TCon_18</t>
+  </si>
+  <si>
+    <t>User is directed to the Register page</t>
+  </si>
+  <si>
+    <t>User is directed to the Log in page</t>
+  </si>
+  <si>
+    <t>While on the About page and not logged in, select the Register link</t>
+  </si>
+  <si>
+    <t>While on the About page and not logged in, select the select the Log in link</t>
+  </si>
+  <si>
+    <t>TCase_19</t>
+  </si>
+  <si>
+    <t>About_TProc_19</t>
+  </si>
+  <si>
+    <t>Nav_TCon_19</t>
+  </si>
+  <si>
+    <t>Check if the My Account - reset password page can be directly navigated to from the About page as a logged in user</t>
+  </si>
+  <si>
+    <t>Check if a logged in user can log off from the About page</t>
+  </si>
+  <si>
+    <t>Check if the About page does not allow direct access to the "Forgot password" page</t>
+  </si>
+  <si>
+    <t>User is directed to the My Account - reset password  page</t>
+  </si>
+  <si>
+    <t>User is logged out of system.</t>
+  </si>
+  <si>
+    <t>User is unable to access Forgot password</t>
+  </si>
+  <si>
+    <t>While on the About page as a logged in user, select the My Account - reset password link</t>
+  </si>
+  <si>
+    <t>While on the About page as a logged in user, select the Log off link</t>
+  </si>
+  <si>
+    <t>While on the About page check if the Forgot password page is directly accessible</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1275,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1135,7 +1284,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1145,7 +1293,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1184,7 +1331,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -1210,7 +1357,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1307,11 +1453,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108670336"/>
-        <c:axId val="108676224"/>
+        <c:axId val="106835328"/>
+        <c:axId val="106841216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108670336"/>
+        <c:axId val="106835328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108676224"/>
+        <c:crossAx val="106841216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108676224"/>
+        <c:axId val="106841216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108670336"/>
+        <c:crossAx val="106835328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,10 +1891,10 @@
   <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1920,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -1791,7 +1937,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -1806,10 +1952,10 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>58</v>
@@ -1823,10 +1969,10 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -1840,10 +1986,10 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>65</v>
@@ -1857,10 +2003,10 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>66</v>
@@ -1874,10 +2020,10 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>66</v>
@@ -1891,10 +2037,10 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
@@ -1905,13 +2051,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1919,13 +2065,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1933,27 +2079,27 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1961,16 +2107,71 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1998,8 +2199,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
+    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,16 +2273,16 @@
     </row>
     <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -2096,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -2111,16 +2312,16 @@
     </row>
     <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>62</v>
@@ -2135,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -2150,16 +2351,16 @@
     </row>
     <row r="4" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>63</v>
@@ -2174,7 +2375,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="4"/>
@@ -2189,16 +2390,16 @@
     </row>
     <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
@@ -2213,7 +2414,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="4"/>
@@ -2225,19 +2426,19 @@
     </row>
     <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -2249,7 +2450,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4"/>
@@ -2261,19 +2462,19 @@
     </row>
     <row r="7" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -2285,7 +2486,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
@@ -2300,19 +2501,19 @@
     </row>
     <row r="8" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -2324,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="4"/>
@@ -2338,24 +2539,24 @@
       </c>
       <c r="U8" s="30">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -2367,10 +2568,10 @@
         <v>25</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>33</v>
@@ -2383,7 +2584,7 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P9" s="10"/>
       <c r="T9" t="s">
@@ -2396,19 +2597,19 @@
     </row>
     <row r="10" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -2420,7 +2621,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
@@ -2439,19 +2640,19 @@
     </row>
     <row r="11" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -2463,7 +2664,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
@@ -2475,19 +2676,19 @@
     </row>
     <row r="12" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -2499,10 +2700,10 @@
         <v>25</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>33</v>
@@ -2515,25 +2716,25 @@
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>27</v>
@@ -2545,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2557,19 +2758,19 @@
     </row>
     <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -2581,7 +2782,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2591,12 +2792,32 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
+    <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="10"/>
+      <c r="G15" s="31">
+        <v>42108</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2605,12 +2826,32 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E16" s="10"/>
+    <row r="16" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="10"/>
+      <c r="G16" s="31">
+        <v>42108</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -2619,12 +2860,32 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
+    <row r="17" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="10"/>
+      <c r="G17" s="31">
+        <v>42108</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -2633,12 +2894,32 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
+    <row r="18" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="31">
+        <v>42108</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -2647,12 +2928,32 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="10"/>
+      <c r="G19" s="31">
+        <v>42108</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2661,12 +2962,32 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E20" s="10"/>
+    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="10"/>
+      <c r="G20" s="31">
+        <v>42108</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -2675,8 +2996,8 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
       <c r="H21" s="25"/>
@@ -2689,7 +3010,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
@@ -2703,7 +3024,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
@@ -2717,7 +3038,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
@@ -2731,7 +3052,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
@@ -2748,7 +3069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
@@ -2769,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
@@ -2790,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
@@ -2811,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
@@ -2832,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
@@ -2853,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
@@ -2867,7 +3188,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
@@ -4699,7 +5020,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
@@ -4710,7 +5031,7 @@
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F159</xm:sqref>
+          <xm:sqref>F2:F15 F18:F159</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4724,6 +5045,12 @@
           </x14:formula1>
           <xm:sqref>K2:K12</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F16:F17</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -4735,10 +5062,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,19 +5107,19 @@
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="26" t="s">
@@ -4806,19 +5133,19 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -4831,19 +5158,19 @@
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4856,19 +5183,19 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4881,19 +5208,19 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4906,19 +5233,19 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4931,19 +5258,19 @@
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4956,19 +5283,19 @@
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4981,19 +5308,19 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5006,19 +5333,19 @@
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5031,19 +5358,19 @@
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5056,19 +5383,19 @@
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5081,19 +5408,19 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5104,12 +5431,22 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5119,12 +5456,22 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5134,12 +5481,22 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5149,12 +5506,22 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5164,12 +5531,22 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5178,6 +5555,23 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5272,21 +5666,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5400,10 +5779,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -5418,16 +5819,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
+++ b/Testing Spreadsheet v1.0 AboutPage, Kevin O'Hare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,8 @@
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="236">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1453,11 +1454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106835328"/>
-        <c:axId val="106841216"/>
+        <c:axId val="105797120"/>
+        <c:axId val="105798656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106835328"/>
+        <c:axId val="105797120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106841216"/>
+        <c:crossAx val="105798656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106841216"/>
+        <c:axId val="105798656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106835328"/>
+        <c:crossAx val="105797120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,8 +1894,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,6 +2130,9 @@
       <c r="C15" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2140,8 +2144,11 @@
       <c r="C16" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
@@ -2151,8 +2158,11 @@
       <c r="C17" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>194</v>
       </c>
@@ -2162,8 +2172,11 @@
       <c r="C18" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>195</v>
       </c>
@@ -2172,6 +2185,9 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5018,42 +5034,6 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Settings!$A$4:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Settings!$B$4:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F15 F18:F159</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Settings!$F$4:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Settings!$D$4:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Settings!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F16:F17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5064,7 +5044,7 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -5666,6 +5646,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5779,32 +5774,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -5819,9 +5792,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
